--- a/Analyst Dataset Sales.xlsx
+++ b/Analyst Dataset Sales.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL PROJEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1D9EA-189D-46B7-89F1-06BF473E8922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A0713-F66B-4426-A892-B1816589FAD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,18 @@
     <sheet name="Dataset" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Area">#N/A</definedName>
     <definedName name="Slicer_Merek">#N/A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="60">
   <si>
     <t>Bulan</t>
   </si>
@@ -165,7 +167,58 @@
     <t>Sum of Keuntungan</t>
   </si>
   <si>
-    <t>KEUNTUNGAN</t>
+    <t>&lt;22/01/2024</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Agu</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Okt</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>PENJUALAN SETIAP AREA</t>
+  </si>
+  <si>
+    <t>PENJUALAN TIAP BULAN</t>
+  </si>
+  <si>
+    <t>PERBANDINGAN STOK AWAL DAN TERJUAL</t>
+  </si>
+  <si>
+    <t>PERBANDINGAN STOK AWAL DAN TERJUAL TIAP AREA</t>
+  </si>
+  <si>
+    <t>KEUNTUNGAN TIAP AREA</t>
   </si>
 </sst>
 </file>
@@ -347,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -401,65 +454,17 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="&quot;Trebuchet MS&quot;"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="&quot;Trebuchet MS&quot;"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -739,13 +744,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -759,6 +757,68 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="&quot;Trebuchet MS&quot;"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="&quot;Trebuchet MS&quot;"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,7 +847,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DATASET.xlsx]Analyst!PivotTable3</c:name>
+    <c:name>[Analyst Dataset Sales.xlsx]Analyst!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1790,7 +1850,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DATASET.xlsx]Analyst!PivotTable6</c:name>
+    <c:name>[Analyst Dataset Sales.xlsx]Analyst!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1869,7 +1929,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Analyst!$J$4:$J$30</c:f>
+              <c:f>Analyst!$J$4:$J$29</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -1959,7 +2019,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analyst!$K$4:$K$30</c:f>
+              <c:f>Analyst!$K$4:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2058,7 +2118,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Analyst!$J$4:$J$30</c:f>
+              <c:f>Analyst!$J$4:$J$29</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -2148,7 +2208,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analyst!$L$4:$L$30</c:f>
+              <c:f>Analyst!$L$4:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2454,7 +2514,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DATASET.xlsx]Analyst!PivotTable7</c:name>
+    <c:name>[Analyst Dataset Sales.xlsx]Analyst!PivotTable7</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3274,6 +3334,2451 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analyst Dataset Sales.xlsx]Analyst!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Stok Awal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Analyst!$L$35:$L$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bali</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bandung</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Bogor</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Depok</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Jakarta</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$M$35:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2393-4415-A079-8F3021D524A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$N$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Stok Terjual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Analyst!$L$35:$L$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Adidos</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Batu</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Naik</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Ngenes</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Sekecer</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bali</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bandung</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Bogor</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Depok</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Jakarta</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$N$35:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2393-4415-A079-8F3021D524A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1854214256"/>
+        <c:axId val="1856955552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1854214256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856955552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1856955552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1854214256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analyst Dataset Sales.xlsx]Analyst!PivotTable4</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$B$96:$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analyst!$A$98:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Adidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Batu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naik</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ngenes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sekecer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$B$98:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15349887133182843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22121896162528218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17268623024830701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45259593679458238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D713-4A93-94A9-7742E267840F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$C$96:$C$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analyst!$A$98:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Adidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Batu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naik</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ngenes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sekecer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$C$98:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11836734693877551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23401360544217686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31156462585034012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20544217687074831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1306122448979592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-D713-4A93-94A9-7742E267840F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$D$96:$D$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bogor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analyst!$A$98:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Adidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Batu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naik</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ngenes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sekecer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$D$98:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.37048832271762205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17728237791932058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26539278131634819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7940552016985137E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11889596602972399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-D713-4A93-94A9-7742E267840F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$E$96:$E$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depok</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analyst!$A$98:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Adidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Batu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naik</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ngenes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sekecer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$E$98:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.30914826498422715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50788643533123023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18296529968454259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-D713-4A93-94A9-7742E267840F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$F$96:$F$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jakarta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analyst!$A$98:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Adidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Batu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naik</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ngenes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sekecer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$F$98:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10336538461538461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11899038461538461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52283653846153844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17548076923076922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9326923076923073E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-D713-4A93-94A9-7742E267840F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyst!$G$96:$G$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analyst!$A$98:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Adidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Batu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naik</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ngenes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sekecer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyst!$G$98:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-D713-4A93-94A9-7742E267840F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72403700417729477"/>
+          <c:y val="0.16857137649460485"/>
+          <c:w val="0.15389726812317475"/>
+          <c:h val="0.43646835812190143"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3355,6 +5860,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4920,6 +7505,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4962,17 +8569,17 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Merek">
@@ -4995,7 +8602,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5106,6 +8713,156 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1FE49D-C980-48B6-8769-785E7078538D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A709AB88-BE40-436F-9A86-3B9926F35312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Area">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D60D2F1-81C1-4107-817B-43C908EB06A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Area"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5549900" y="17183100"/>
+              <a:ext cx="1828800" cy="2381250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5569,7 +9326,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Keuntungan" numFmtId="0" formula="Penjualan -'Harga Modal'" databaseField="0"/>
+    <cacheField name="Keuntungan" numFmtId="0" formula="Penjualan-'Harga Modal'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -6875,7 +10632,1013 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5478CE13-6E4B-45A7-85D9-6E7AC7CFB83E}" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38F613AC-6149-460B-A395-8104FE3D0FFC}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A96:G103" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Stok Terjual" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4D45F40-181E-4C8A-BF23-44B0AA05F3B0}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L34:N62" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Stok Awal" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Stok Terjual" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5DA2A28-1B13-4E98-B8ED-37A8A9C0B835}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A82:N90" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="8"/>
+    <field x="0"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Keuntungan" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5478CE13-6E4B-45A7-85D9-6E7AC7CFB83E}" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A51:G58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -7044,9 +11807,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20C4B834-639F-4E16-92CB-D33FC1F73375}" name="PivotTable6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J3:L30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20C4B834-639F-4E16-92CB-D33FC1F73375}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J3:L29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -7082,7 +11845,7 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -7161,9 +11924,6 @@
     <i r="1">
       <x v="5"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
   <colFields count="1">
     <field x="-2"/>
@@ -7181,7 +11941,7 @@
     <dataField name="Sum of Stok Terjual" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -7221,8 +11981,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A0A7216-B4DA-4709-A8AC-1D3B6E173B3F}" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A0A7216-B4DA-4709-A8AC-1D3B6E173B3F}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -7713,7 +12473,7 @@
     <dataField name="Sum of Penjualan" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="13">
@@ -7734,7 +12494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="13">
@@ -7862,24 +12622,45 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Area" xr10:uid="{36CD1E17-6254-4F34-851C-FBFF0E23CEC3}" sourceName="Area">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="684609485">
+      <items count="6">
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="5" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Merek" xr10:uid="{EC30F8C7-53F8-4D6D-A309-E6C6839FDE35}" cache="Slicer_Merek" caption="Merek" rowHeight="225425"/>
+  <slicer name="Area" xr10:uid="{29701753-E6DC-46D3-9914-39B77A0E5E2E}" cache="Slicer_Area" caption="Area" rowHeight="225425"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{912BE666-7960-4924-94E8-9504AF8B031D}" name="Table1" displayName="Table1" ref="A1:H129" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{912BE666-7960-4924-94E8-9504AF8B031D}" name="Table1" displayName="Table1" ref="A1:H129" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:H129" xr:uid="{40ED2528-1EF3-44D0-B4E9-B0AE3E9EDB5C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{837B057F-FAF7-4358-816D-4C04D19552F2}" name="Bulan" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E72C8441-A79A-4890-91A5-CBBAA704D2A8}" name="Merek" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2272F0F1-2A8C-4DC7-8732-8D9807446956}" name="Kategori" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DAEBE77E-EAFF-4D6E-A758-EC63C5040406}" name="Area" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{5D116DB8-51C0-4C58-BC34-39D99F79C14A}" name="Stok Terjual" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{88E6E89E-6093-4EE1-B963-352AB327036A}" name="Stok Awal" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D1CFBC2D-A063-4ACA-8973-7CCD9CA0625E}" name="Penjualan" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{69549B9A-8733-47FC-BC63-CC99FCBCDA42}" name="Harga Modal" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{837B057F-FAF7-4358-816D-4C04D19552F2}" name="Bulan" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E72C8441-A79A-4890-91A5-CBBAA704D2A8}" name="Merek" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2272F0F1-2A8C-4DC7-8732-8D9807446956}" name="Kategori" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DAEBE77E-EAFF-4D6E-A758-EC63C5040406}" name="Area" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5D116DB8-51C0-4C58-BC34-39D99F79C14A}" name="Stok Terjual" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{88E6E89E-6093-4EE1-B963-352AB327036A}" name="Stok Awal" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D1CFBC2D-A063-4ACA-8973-7CCD9CA0625E}" name="Penjualan" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{69549B9A-8733-47FC-BC63-CC99FCBCDA42}" name="Harga Modal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8083,29 +12864,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7EC7F8-A69F-496D-A58B-E495FAE0469B}">
-  <dimension ref="A3:L58"/>
+  <dimension ref="A2:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -8131,6 +12911,14 @@
     <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
         <v>38</v>
@@ -8716,31 +13504,219 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="J30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="18">
-        <v>12800</v>
-      </c>
-      <c r="L30" s="18">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    <row r="33" spans="12:14">
+      <c r="L33" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14">
+      <c r="L34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14">
+      <c r="L35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="18">
+        <v>2500</v>
+      </c>
+      <c r="N35" s="18">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14">
+      <c r="L36" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="18">
+        <v>400</v>
+      </c>
+      <c r="N36" s="18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14">
+      <c r="L37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="18">
+        <v>600</v>
+      </c>
+      <c r="N37" s="18">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14">
+      <c r="L38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="18">
+        <v>500</v>
+      </c>
+      <c r="N38" s="18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14">
+      <c r="L39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="18">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14">
+      <c r="L40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="N40" s="18">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="41" spans="12:14">
+      <c r="L41" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="18">
+        <v>200</v>
+      </c>
+      <c r="N41" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="12:14">
+      <c r="L42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="18">
+        <v>400</v>
+      </c>
+      <c r="N42" s="18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="12:14">
+      <c r="L43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="18">
+        <v>600</v>
+      </c>
+      <c r="N43" s="18">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="12:14">
+      <c r="L44" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="18">
+        <v>300</v>
+      </c>
+      <c r="N44" s="18">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="12:14">
+      <c r="L45" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="18">
+        <v>500</v>
+      </c>
+      <c r="N45" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="12:14">
+      <c r="L46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="18">
+        <v>3400</v>
+      </c>
+      <c r="N46" s="18">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="47" spans="12:14">
+      <c r="L47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1200</v>
+      </c>
+      <c r="N47" s="18">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="12:14">
+      <c r="L48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="18">
+        <v>900</v>
+      </c>
+      <c r="N48" s="18">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="L49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="18">
+        <v>700</v>
+      </c>
+      <c r="N49" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="18">
+        <v>200</v>
+      </c>
+      <c r="N50" s="18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="L51" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="18">
+        <v>400</v>
+      </c>
+      <c r="N51" s="18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="16" t="s">
         <v>22</v>
       </c>
@@ -8762,8 +13738,17 @@
       <c r="G52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="L52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="18">
+        <v>1300</v>
+      </c>
+      <c r="N52" s="18">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="17" t="s">
         <v>21</v>
       </c>
@@ -8785,8 +13770,17 @@
       <c r="G53" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="L53" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="18">
+        <v>300</v>
+      </c>
+      <c r="N53" s="18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="17" t="s">
         <v>19</v>
       </c>
@@ -8808,8 +13802,17 @@
       <c r="G54" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="L54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="18">
+        <v>600</v>
+      </c>
+      <c r="N54" s="18">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="17" t="s">
         <v>13</v>
       </c>
@@ -8831,8 +13834,17 @@
       <c r="G55" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="L55" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="18">
+        <v>400</v>
+      </c>
+      <c r="N55" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="17" t="s">
         <v>17</v>
       </c>
@@ -8854,8 +13866,17 @@
       <c r="G56" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="L56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="18">
+        <v>3600</v>
+      </c>
+      <c r="N56" s="18">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="17" t="s">
         <v>10</v>
       </c>
@@ -8877,8 +13898,17 @@
       <c r="G57" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="L57" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="18">
+        <v>500</v>
+      </c>
+      <c r="N57" s="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="17" t="s">
         <v>23</v>
       </c>
@@ -8900,14 +13930,556 @@
       <c r="G58" s="18">
         <v>0</v>
       </c>
+      <c r="L58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="18">
+        <v>500</v>
+      </c>
+      <c r="N58" s="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="L59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="18">
+        <v>1400</v>
+      </c>
+      <c r="N59" s="18">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="L60" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="18">
+        <v>700</v>
+      </c>
+      <c r="N60" s="18">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="L61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="18">
+        <v>500</v>
+      </c>
+      <c r="N61" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="L62" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" t="s">
+        <v>50</v>
+      </c>
+      <c r="K83" t="s">
+        <v>51</v>
+      </c>
+      <c r="L83" t="s">
+        <v>52</v>
+      </c>
+      <c r="M83" t="s">
+        <v>53</v>
+      </c>
+      <c r="N83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="18">
+        <v>0</v>
+      </c>
+      <c r="C85" s="18">
+        <v>12680000</v>
+      </c>
+      <c r="D85" s="18">
+        <v>42630000</v>
+      </c>
+      <c r="E85" s="18">
+        <v>-18190000</v>
+      </c>
+      <c r="F85" s="18">
+        <v>0</v>
+      </c>
+      <c r="G85" s="18">
+        <v>10770000</v>
+      </c>
+      <c r="H85" s="18">
+        <v>9800000</v>
+      </c>
+      <c r="I85" s="18">
+        <v>9200000</v>
+      </c>
+      <c r="J85" s="18">
+        <v>27600000</v>
+      </c>
+      <c r="K85" s="18">
+        <v>18100000</v>
+      </c>
+      <c r="L85" s="18">
+        <v>0</v>
+      </c>
+      <c r="M85" s="18">
+        <v>0</v>
+      </c>
+      <c r="N85" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="18">
+        <v>0</v>
+      </c>
+      <c r="C86" s="18">
+        <v>9000000</v>
+      </c>
+      <c r="D86" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="E86" s="18">
+        <v>0</v>
+      </c>
+      <c r="F86" s="18">
+        <v>29500000</v>
+      </c>
+      <c r="G86" s="18">
+        <v>2520000</v>
+      </c>
+      <c r="H86" s="18">
+        <v>0</v>
+      </c>
+      <c r="I86" s="18">
+        <v>0</v>
+      </c>
+      <c r="J86" s="18">
+        <v>9200000</v>
+      </c>
+      <c r="K86" s="18">
+        <v>10400000</v>
+      </c>
+      <c r="L86" s="18">
+        <v>20200000</v>
+      </c>
+      <c r="M86" s="18">
+        <v>13470000</v>
+      </c>
+      <c r="N86" s="18">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="18">
+        <v>0</v>
+      </c>
+      <c r="C87" s="18">
+        <v>18200000</v>
+      </c>
+      <c r="D87" s="18">
+        <v>0</v>
+      </c>
+      <c r="E87" s="18">
+        <v>5350000</v>
+      </c>
+      <c r="F87" s="18">
+        <v>33240000</v>
+      </c>
+      <c r="G87" s="18">
+        <v>17100000</v>
+      </c>
+      <c r="H87" s="18">
+        <v>9600000</v>
+      </c>
+      <c r="I87" s="18">
+        <v>13600000</v>
+      </c>
+      <c r="J87" s="18">
+        <v>0</v>
+      </c>
+      <c r="K87" s="18">
+        <v>7220000</v>
+      </c>
+      <c r="L87" s="18">
+        <v>26770000</v>
+      </c>
+      <c r="M87" s="18">
+        <v>5500000</v>
+      </c>
+      <c r="N87" s="18">
+        <v>25900000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="18">
+        <v>0</v>
+      </c>
+      <c r="C88" s="18">
+        <v>3430000</v>
+      </c>
+      <c r="D88" s="18">
+        <v>4500000</v>
+      </c>
+      <c r="E88" s="18">
+        <v>27000000</v>
+      </c>
+      <c r="F88" s="18">
+        <v>0</v>
+      </c>
+      <c r="G88" s="18">
+        <v>5200000</v>
+      </c>
+      <c r="H88" s="18">
+        <v>8700000</v>
+      </c>
+      <c r="I88" s="18">
+        <v>18230000</v>
+      </c>
+      <c r="J88" s="18">
+        <v>0</v>
+      </c>
+      <c r="K88" s="18">
+        <v>0</v>
+      </c>
+      <c r="L88" s="18">
+        <v>0</v>
+      </c>
+      <c r="M88" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="N88" s="18">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="18">
+        <v>0</v>
+      </c>
+      <c r="C89" s="18">
+        <v>3600000</v>
+      </c>
+      <c r="D89" s="18">
+        <v>5010000</v>
+      </c>
+      <c r="E89" s="18">
+        <v>0</v>
+      </c>
+      <c r="F89" s="18">
+        <v>0</v>
+      </c>
+      <c r="G89" s="18">
+        <v>3100000</v>
+      </c>
+      <c r="H89" s="18">
+        <v>4700000</v>
+      </c>
+      <c r="I89" s="18">
+        <v>2480200</v>
+      </c>
+      <c r="J89" s="18">
+        <v>1800000</v>
+      </c>
+      <c r="K89" s="18">
+        <v>17020000</v>
+      </c>
+      <c r="L89" s="18">
+        <v>31170000</v>
+      </c>
+      <c r="M89" s="18">
+        <v>13221300</v>
+      </c>
+      <c r="N89" s="18">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="18">
+        <v>0</v>
+      </c>
+      <c r="C90" s="18">
+        <v>0</v>
+      </c>
+      <c r="D90" s="18">
+        <v>0</v>
+      </c>
+      <c r="E90" s="18">
+        <v>0</v>
+      </c>
+      <c r="F90" s="18">
+        <v>0</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0</v>
+      </c>
+      <c r="H90" s="18">
+        <v>0</v>
+      </c>
+      <c r="I90" s="18">
+        <v>0</v>
+      </c>
+      <c r="J90" s="18">
+        <v>0</v>
+      </c>
+      <c r="K90" s="18">
+        <v>0</v>
+      </c>
+      <c r="L90" s="18">
+        <v>0</v>
+      </c>
+      <c r="M90" s="18">
+        <v>0</v>
+      </c>
+      <c r="N90" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="22">
+        <v>0.15349887133182843</v>
+      </c>
+      <c r="C98" s="22">
+        <v>0.11836734693877551</v>
+      </c>
+      <c r="D98" s="22">
+        <v>0.37048832271762205</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0.30914826498422715</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0.10336538461538461</v>
+      </c>
+      <c r="G98" s="22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="22">
+        <v>0.22121896162528218</v>
+      </c>
+      <c r="C99" s="22">
+        <v>0.23401360544217686</v>
+      </c>
+      <c r="D99" s="22">
+        <v>0.17728237791932058</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0.50788643533123023</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0.11899038461538461</v>
+      </c>
+      <c r="G99" s="22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="22">
+        <v>0.17268623024830701</v>
+      </c>
+      <c r="C100" s="22">
+        <v>0.31156462585034012</v>
+      </c>
+      <c r="D100" s="22">
+        <v>0.26539278131634819</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0.52283653846153844</v>
+      </c>
+      <c r="G100" s="22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="22">
+        <v>0</v>
+      </c>
+      <c r="C101" s="22">
+        <v>0.20544217687074831</v>
+      </c>
+      <c r="D101" s="22">
+        <v>6.7940552016985137E-2</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0.18296529968454259</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0.17548076923076922</v>
+      </c>
+      <c r="G101" s="22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="22">
+        <v>0.45259593679458238</v>
+      </c>
+      <c r="C102" s="22">
+        <v>0.1306122448979592</v>
+      </c>
+      <c r="D102" s="22">
+        <v>0.11889596602972399</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>7.9326923076923073E-2</v>
+      </c>
+      <c r="G102" s="22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="22">
+        <v>0</v>
+      </c>
+      <c r="C103" s="22">
+        <v>0</v>
+      </c>
+      <c r="D103" s="22">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId5"/>
+        <x14:slicer r:id="rId9"/>
       </x14:slicerList>
     </ext>
   </extLst>
